--- a/500all/speech_level/speeches_CHRG-114hhrg99783.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99783.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order. Without objection the Chair is authorized to declare recesses of the Committee at any time. I want to thank all of you for being here.    You know, given the subject of this hearing, it seems appropriate to me that we all remind ourselves that the very bedrock foundation principle that gave birth to America in the first place was the conviction that all human beings are children of God and that they are created equal in his sight.    Throughout America's history we have struggled to fulfill that conviction in our national life. It took a Civil War in this Nation to make the 7,000-year-old, State-sanctioned practice of human slavery to come to an end, and ultimately it did so across the world.    American women overcame the mindless policy that deprived them of the right to vote in America. Then this Nation charged into Europe and arrested the hellish Nazi holocaust. We crushed the Ku Klux Klan and prevailed in the dark days of our own civil rights struggle.    And so, in many ways we have made great progress in the area of civil rights in this country. But there is one glaring exception: We have overlooked unborn children and that life itself is the most foundational civil right of all. The result is that today in America between 40 and 50 percent of all African-American babies, virtually 1 in 2, are killed before they are born, which is a greater cause of death for African-Americans than heart disease, cancer, diabetes, AIDS, and violence combined.    An Hispanic child is three times more likely to be aborted than a White child. A Black child is five times more likely to be aborted than a White child. More than 14 million African-American babies have been aborted since Roe v. Wade. It translates to over one-fourth of the African-American population in America today. When you add that to the thousands of little girls who have been aborted in America simply because they are little girls instead of little boys, these are travesties that should assault the mind and conscience of every American.    In the course of the Committee's investigation into Planned Parenthood, we have discovered that it is training clinic staff to answer questions from patients about sex selection and race selection abortions. Planned Parenthood physicians are clearly being confronted with the issue of whether or not a child can knowingly be aborted when the underlying reason is discriminatory.    Currently only eight States prohibit abortions for the reason of sex selection at some point during the pregnancy. My home State of Arizona also prohibits sex selection and race-based abortions.    Now, the subject of the hearing today, the Prenatal Nondiscrimination Act, restricts sex selection abortion and race selection abortion, and the coercion of a women to obtain either. The bill holds abortionists who prey on women accountable for their actions while holding the women on whom the abortion is performed harmless under the law.    Now, there will be those who will say that this bill has a much larger agenda; and let me respond simply by saying that I sincerely and passionately hope that they are right. I truly hope that the debate and passage of this bill will call all Americans in and outside of Congress to an inward and heartfelt reflection upon the humanity of unborn children and the inhumanity of what is being done to them in 2016 in the land of the free and the home of the brave.    Across human history the greatest voices among us have always emphasized the critical responsibility of each of us to recognize and cherish the divine light of eternity shining in the soul of every last one of our fellow human beings.    In 1847, Frederick Douglass said, ``Right is of no sex, truth is of no color, God is the father of us all and all our brethren.'' In Matthew 25, Jesus said, ``Inasmuch as you have done and one of the least of these my brethren and you have done it under me.'' Thomas Jefferson said, ``The care of human life and its happiness and not its destruction is the chief and only object of good government.''    Ladies and gentlemen, I know that when the subject is related in any way to abortion, the doors of reason and human compassion in our minds and hearts often close, and the humanity of the unborn can oftentimes no longer be seen. But this is the civil rights struggle that will define our generation. And I hope this hearing today will begin to open our hearts and minds again.    And with that, I would now yield to the Ranking Member for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair. I know that you are sincere about your beliefs and I know that reasonable people can differ and we do, but I know that you are sincere and this is a heartfelt position for you. Nevertheless, I am disturbed that we have this hearing today. And I am disturbed because of the fact that first I do believe--and you mentioned in your opening statement that somebody would mention this, and yes, I am going to mention it--that this is really an assault on the woman's right to choose and not simply anything to do with sex and race.    And I am also concerned that this bill at one time was--no longer is, but one time had the name of Frederick Douglass in it and I think it besmirched the name of Frederick Douglass, who is one of the greatest Americans of all time. And that bothered me the last time we had this up and I opposed it.    And in your opening statement you were right that our Declaration of Independence, our Constitution, wonderful documents and said something in there about all men are created equal, they had inalienable rights, et cetera, but that was words on paper because we had slaves; and it did not end with the Civil War. It went on in the South at least until the 1960's and the Voting Rights Act, the Civil Rights Act, Brown v. Board of Education.    And it did not end there because in the South where I am from, which was the focus of the Voting Rights Act for good reason, people do not let--old times there are not forgotten and rarely given up. And segregation and racial injustice carried on into the 1970's and the 1980's and they carry on today. And we do not have Governors in the South now with interposition dripping off their lips standing in the schoolhouse door.    But what we have got is Governors and legislators, not just in the South and as the Supreme Court did get it correct to some extent in the Voting Rights Act when they said it is not just a problem in those select States in the South, it is a problem all over the country and that they should not be specifically limited in the South, well, I do not know that they should have just been limited.    The South is the worst at doing this and there may be problems in other parts in the country, indeed there are, with racial gerrymandering and impediments to people voting, but the South does it best. It is one of the South's deals: We have got barbeque, we have got good football, and we do the best job if you want to really thwart a person's opportunity to vote, the South does it.    And so there should have been special circumstances there. But unfortunately it is a national problem, but the South is kind of the leader there. So all attempts to stop people from voting, which our Judiciary Committee has not taken up voting rights, that is where we should be looking at. We can give people an opportunity to vote. And if we can do things to give people opportunities to have a good living, have women have equal pay and to get jobs and get proper education, and poor people get education and be able to afford and well take care of children, you would cut down the rate of abortion in the African-American community.    You are not going to do it with some bill like this. You are going to do it by giving African-American women better job opportunities and better pay and look out for them in every way possible so they can have a child and know they can afford it and that child will be brought into a house and a home with a mother that can take care of them.    Those are the issues we have got to be dealing with. And I know that these issues--the Chairman and the members of his party are aware of them, but they are not bringing bills to deal with them. We are saying if you have a job now you are losing your SNAP payments. But just because you have got a job does not mean you do not need assistance and that you and your family do not need some help.    So this bill, which is opposed by about every group that cares about women's choice and constitutional rights of a woman, is here like other bills we have had to really be an assault on Roe v. Wade. We have got an entire Committee set up to be an assault on Roe v. Wade. And yet we have got folks that need job training and monies for education. And we have got voting rights issues and we got healthcare issues. And we are not dealing with those things. We are not dealing with what causes the problem. And we really need--we are kind of picking these issues.    And I understand the Chairman. The Chairman is very, very strong on this issue and he has got a heartfelt belief that really--I may be wrong, if I am wrong I do not mean it in an adverse way upon you--but I do not think you want abortion to be legal under any circumstances. And I understand your position, but I think women have a right to choose. I think Roe v. Wade was right. And I do not think we should be spending time on these type of issues, attack Roe v. Wade and women's choice; and we should be dealing with voting rights and human rights and civil rights, and not under the guise of using those issues to frame a bill and a conversation that intends to overrule Roe v. Wade.    So I would like to introduce for the record a statement from the Black Women Reproductive Justice Organizations, they oppose this bill; and also one from the physicians, the American College of Obstetricians and Gynecologists. And without objection I would ask they be made part of the record.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Franks. I am very delighted to be here with you and my good friend, Ranking Subcommittee Member Cohen and the highly-esteemed Judy Chu. To my friends here and our guests that are witnesses and our friends in the audience, this Prenatal Nondiscrimination Act is the latest attempt to erode the constitutional right to an abortion guaranteed by Roe v. Wade for over 40 years. Among other things, the bill would make it a crime for a doctor to perform an abortion if he or she knows that the procedure is being done because of the race or sex of the fetus or the race of one of the parents regardless of viability.    As I noted in an earlier Congress, the 112th, when we last considered this bill, it is flawed and patently unconstitutional because it bans certain pre-viable abortions. The Roe case already mentioned is clear that a woman has an absolutely constitutional right to have an abortion prior to fetal viability. And this legislation is another deliberate attempt by anti-choice activists to undermine and ultimately overturn Roe.    In addition, this measure has nothing to do with civil rights. For instance, the bill proponents offer no evidence that women are choosing race-selective abortions. Indeed, these proponents do not even bother to make the claim that African-American women, for example, choose to abort their fetuses because the fetus or one of the parents is African-American. They do not make this argument because it is absurd on its face. And yet that is exactly the type of conduct that the bill supposedly prohibits.    The bill's proponents try to sidestep this obvious flaw by arguing instead that the bill is needed because abortions are disproportionately common in communities of color. But to the extent abortions are performed disproportionately in minority communities, the disparity points to broader socio-economic inequalities that banning abortion will not solve.    The African-American and Hispanic communities are underserved when it comes to prenatal, maternal, and child healthcare services. This lack of access to reproductive healthcare results in African-American women being three to four times more likely to die from pregnancy-related causes than White women. And barriers to effective contraceptives and effective sex education, among other things, leads to the unintended pregnancy rate for African-American women being 67 percent versus 40 percent for White women. Minority communities lack access to adequate health care.    Yet rather than addressing these disparities, the bill only reinforces them through its criminal penalties, which will create a chilling effect on doctors serving these communities.    So finally I reject in the strongest possible terms the slander that Planned Parenthood and other abortion providers are inherently racist. Planned Parenthood is a leading provider of high quality health care for women serving 2.7 million Americans a year. It provides many critical health services, such as annual wellness claims, cancer screenings, contraception, and the study of sexually transmitted diseases.    My hero in all of this and many other issues, Dr. Martin Luther King, Jr., strongly supported the work of Margaret Sanger, Planned Parenthood's founder, and emphasized the importance of access to family planning resources for African-Americans.    On accepting the Margaret Sanger Award from Planned Parenthood in 1966, Dr. King stated, and I quote, and as I conclude, ``There is a striking kinship between our movement and Margaret Sanger's early efforts. She, like we, saw the horrifying conditions of ghetto life. Like we, she knew that all of society is poisoned by cancerous slums. Like we, she was a direct actionist, a non-violent resister. African-Americans have no mere academic nor ordinary interest in family planning. They have a special and urgent concern.''    My friends, I concur with Dr. King and reject the sponsor's preposterous and offensive argument that legalized abortion and its providers are racist.    And I thank you for this opportunity, Mr. Chairman, and I am concluded at this point.</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t xml:space="preserve">    Mr. Franks. This meeting will come to order. Thank you all for waiting so patiently. And we will now introduce our witnesses.    And our first witness is Catherine Davis. Ms. Davis is a founding member of the National Black Pro-Life Coalition, and founder and president of the Restoration Project. She often partners with the National Black Pro-Life Coalition, the Network of Politically Active Christians, and the Frederick Douglas Foundation, in an ongoing effort to educate Americans about the issues that are impacting the Black community.    Our second witness is Anna Higgins. Ms. Higgins is an attorney and associate scholar at the Charlotte Lozier Institute, a research and education institution dedicated to bringing together physicians, sociologists, statisticians, and policy researchers on a wide range of life issues. She has previously held the position of director of the Center for Human Dignity at the Family Research Council.    Our third witness is Miriam Yeung. Ms. Yeung is the executive director of the National Asian Pacific American Women's Forum, a multi-issue progressive organization dedicated to social justice and human rights for Asian, and Pacific Islander women and girls in the U.S.    The current priorities include winning rights for immigrant women, organizing nail salon workers for safer working conditions, conducting community based participatory research with young API women, and ending human trafficking.    Our fourth and final witness is Reverend Derek McCoy. Reverend McCoy is the National Clergy Relations Director for the Center of Urban Renewal and Education, a non-profit think tank dedicated to addressing the issues of race and poverty through the principals of faith, freedom, and personal responsibility. He previously served as the president of the Maryland Family Alliance, and Maryland Family Council. I just want to welcome all of you. Thank you for being here.    Now, each of the witnesses written statements will be entered into the record in its entirety. And I would ask that each of you summarize your testimony in 5 minutes or less. To help you stay within that time there is a timing light in front of you. The light will switch from green to yellow, indicating that you have 1 minute to conclude your testimony. When the light turns red it indicates that the witness' 5 minutes have expired.    And before I recognize the witness, it is the tradition of the Subcommittee that they be sworn. So, if you please stand to be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole truth, and nothing but the truth, so help you god? Please be seated.    Let the record reflect that the witnesses answered in the affirmative. And I would now recognize our first witness, Ms. Davis. And, Ms. Davis, if you pull that microphone to you and turn it on before beginning.</t>
   </si>
   <si>
-    <t>Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Davis. Thank you, Congressman.</t>
   </si>
   <si>
@@ -109,27 +97,18 @@
     <t xml:space="preserve">    Mr. Franks. Thank you Ms. Davis. I now recognize our second witness, Ms. Higgins. And, Ms. Higgins, if you will pull that microphone toward you and make sure that it is on.</t>
   </si>
   <si>
-    <t>Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Higgins. All right. Here we go. Mr. Chairman Franks, Ranking Member Cohen, and distinguished Members of the Subcommittee, I am grateful to have asked by the Subcommittee to testify today in support of the Prenatal Nondiscrimination Act of 2016, or H.R. 4924.    Passing this bill is a necessary and proactive step in the fight to end gender inequality domestically and abroad. Many people in the United States assume that sex discrimination has been all but eliminated here. Yet, a violent form of sex discrimination in the form of sex selective abortion, practiced on girls in particular, is still permitted within our boarders.    Sex selective abortion is choosing to abort a preborn child based solely on that child's sex. Any discrimination against a unique human individual based on sex alone constitutes sex discrimination, and it cannot stand. Congress has the opportunity here, through the passage of the Prenatal Nondiscrimination Act to prohibit the discriminatory practice of sex selective abortion, thereby confirming the fact that women have the same inherent civil and human rights as men.    I intend to testify to the existence of sex discrimination through sex selective abortion, the seriousness of it, and the justifications in enacting this bill. My comments are condensed from my extensive research paper just published by Charlotte Lozier Institute this week. The findings on sex selective abortion in this bill are quite extensive, and I think they highlight the prevalence of the problem here in the United States, and the problem globally of sex discrimination against girls via abortion.    Ban on sex selective abortion to protect girls, in particular from the practice of gendercide. We know that studies show that at conception and at birth the ratio of males to females, naturally, biologically, is about equal.    Additionally, there is little to no variation in sex ratios in relation to maternal race or age. So, any kind of skewed sex ratio at birth cannot be explained away by natural variations. There are well documented practices of infanticide and sex selective abortion of female children, and that has resulted in upwards of 160 million missing girls across the globe.    So, what we are saying here is it is affecting the human society in general. Sex selection in favor of males is known to be a problem in certain cultures based on the idea of son preference, but the practice of son preference is not limited to certain cultures or countries. In fact, European countries have numbers similar to that skewed numbers of China and India, particularly the Caucasus.    Opponents of these bans will claim that this precaution is not needed, because the ratio is balanced in the United States overall. That balanced ratio belies the fact that Western nations such as the U.K. and the U.S. have seen a spike in sex ratio imbalance within certain subpopulations inside our own borders. Studies have shown that. And another two studies out of Canada came out this week confirming those very numbers in extreme sex imbalance ratios.    Additionally, we have a lot of commercial advertisements. I saw three websites this week that advertise in the United States finding out the gender of your child as early as 10 weeks gestation for the purpose of family balancing. There's no way to family balance past pregnancy without sex selective abortion.    The abysmal state of abortion reporting data does not allow us, in the United States, to have exact numbers. But the question before us is not, ``What are the exact numbers?'' The question before us is whether any abortion done for reasons of sex selection is permissible in light of our tradition, and laws protecting persons from discrimination based on sex alone.    The American public overwhelmingly supports bans on sex selective abortion, because they understand this violates American tradition of holding up the idea that women and men are equal under the law, and should be thusly protected. Sex discrimination through sex selective abortion is a violent form of sex discrimination, and needs to be eliminated, not just globally, but also here in the United States.    We have seen Congress say that this is not permissible practice overseas. We have seen Secretary of State Clinton, the United Nations, all come out against sex selective abortion. But, if we do not address this here, we have no right to address it elsewhere. So, we must accept that this occurs globally. And Congress can take their first step in eliminating the reprehensive practice of discriminating against women by banning sex selective abortion here in the United States, and thereby retain its moral authority to say, ``This should not happen anywhere.'' Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Thank you, Ms. Higgins. And we now recognize Ms. Yeung.</t>
   </si>
   <si>
-    <t>Yeung</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Yeung. Thank you for allowing me to testify before you today. I lead the National Asian Pacific American Women's Forum, the country's only multi-issue organization dedicated to building a movement for social justice and human rights for Asian American and Pacific Islander women and girls in the United States. On behalf of NAPAWF and the dozens of women's rights reproductive justice and civil rights groups that stand with me, I strongly urge the Members of this Congress to oppose the Prenatal Nondiscrimination Act of 2016.    This bill represents a duplicitous attempt to address racial and gender discrimination, while actually intending to chip away at abortion rights. Not only does this legislation call into question a woman's motives for seeking abortion care, it is especially punishing in the precedent it would set, forcing doctors to scrutinize a woman because of her race or ethnicity. The decision to seek abortion care should be up to a woman with her doctor and her family, not politicians. The majority of Americans support this value, and believe that a woman knows what is best for her and her family.    In a 2015 poll by Hart Research Associates, 65 percent Americans say that Congress should not be spending time debating and passing a sex selective abortion ban. I encourage Members of the Subcommittee to support racial equality in a real way, by addressing healthcare disparities in communities of color, and protecting the sanctity of the doctor/patient relationship by supporting open, honest communication with one's medical provider.    This bill forces doctors to act as police interrogators in the exam room, ultimately making women more reluctant to share their personal experiences for fear of their private information being made public. When medically accurate, safe, and nonjudgmental patient counseling is taken away, women, especially those most vulnerable to domestic violence or trafficking, lose the chance to get the help she needs.    This bill perpetuates the offensive stereotype that Black women are unable to make reproductive health decisions for their own families. It accuses Black women of being irresponsible and worse, intentionally deselecting babies who share their own race. Black women choose abortion care more often than other communities do because of a well-documented, disproportionate lack of access to contraception. This legislation does nothing to address the root causes of unintended pregnancies or historically rooted inequalities within these communities.    In February of 2016, Black women leaders came together in solidarity to affirm Black women's autonomy, and reject legislation like PRENDA that relies on racist claims about Black mothers. In their own words, Monica Raye Simpson, director of the Trust Black Women Partnership said, ``Bans on abortion based on race rely on anti-Black and anti-immigrant stereotypes about women of color, and constitutes a direct assault on Black motherhood.    We must remember that this legislation has its origins in the billboards put up here in Atlanta and around the country attacking Black mothers and stigmatizing our decisions about pregnancy, billboards we fought and successfully saw removed.'' Alicia Garza, cofounder of Black Lives Matter said, ``We absolutely have to make sure that reproductive justice, and reproductive freedom is part of the narrative of what it takes to make Black lives matter.''    Women of color already face difficulties accessing health care and have poorer health outcomes. Black women are more likely to die from preventable pregnancy related causes than White women, and their unintended pregnancy rate is higher than any other ethnic or racial group. Vietnamese women are five times more likely to die from cervical cancer than White women. High levels of poverty already prevent Asian American women and other women of color from accessing health care every day. Unfortunately, PRENDA would make healthcare outcomes for women of color even worse.    This legislation also perpetuates the offensive stereotype that Asian American families do not value the lives of their girl children, while also not addressing the issue of sex selection by ignoring substantive policy to alleviate the root causes of son preference or gender inequity. While sex selection is an issue abroad, the U.S. is not China or India. In the U.S. researchers have found that there is not a widespread issue and, in fact, Asian Americans are actually having more girls on average than White Americans are.    Gender inequity cannot be solved by banning abortion. An interagency U.N. statement addressing sex selection and gender discrimination clearly explains that countries, ``Have an obligation to ensure that these injustices,'' meaning son preference, ``are addressed without exposing women to the risk of death or serious injury by denying them access to needed services, such as safe abortion.'' Aruna Papp, the Canadian advocate, cited in the findings, concurs with this opinion, and has submitted written testimony opposed to PRENDA for the harm it will do to women.    Asian American and Pacific Islander women know that gender inequities do exist and are working in culturally competent ways to provide long-term, sustainable solutions. NAPAWF and others are working with members of our own community to empower women and girls, thereby challenging norms and transforming values. We cannot help women by taking away women's rights. We cannot eliminate racism by relying on racist assumptions.    I welcome all Members of Congress to pass legislation that truly results in racial justice and gender equality. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Thank you Ms. Yeung. And I would now--Reverend McCoy please.</t>
   </si>
   <si>
-    <t>McCoy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Rev. McCoy. Thank you.</t>
   </si>
   <si>
@@ -160,15 +139,9 @@
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman. Before I begin I would like to yield 45 seconds to the gentlelady from California, Ms. Chu.</t>
   </si>
   <si>
-    <t>Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chu. Thank you Congressman Deutch for yielding. I want to thank Miriam Yeung for testifying today, and her leadership on issues affecting the Asian American and Pacific Islander or AAPI community.    As chair of the Congressional Asian Pacific Caucus, and as an Asian American woman, I am extremely disappointed and deeply disturbed to see that PRENDA is once again before this Subcommittee. And I will continue to voice my strong opposition to the racist and sexist nature of this bill. I request that my full written statement be entered into the record.</t>
   </si>
   <si>
@@ -230,9 +203,6 @@
   </si>
   <si>
     <t>412226</t>
-  </si>
-  <si>
-    <t>Jim Jordan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jordan. Mr. Chairman, I would yield my time to the Chair.</t>
@@ -667,11 +637,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -691,13 +659,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -719,11 +685,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -743,13 +707,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -771,11 +733,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -795,13 +755,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -823,11 +781,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -849,11 +805,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -875,11 +829,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -899,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -927,11 +877,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -951,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -979,11 +925,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1003,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1031,11 +973,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1055,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1083,11 +1021,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1107,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1135,11 +1069,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1159,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1187,11 +1117,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1211,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1237,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1265,11 +1189,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1289,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1317,11 +1237,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1341,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1367,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1395,11 +1309,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1419,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1447,11 +1357,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1471,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1499,11 +1405,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1523,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1551,11 +1453,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1575,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1603,11 +1501,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1627,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1653,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1679,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1705,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>50</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1731,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1757,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1783,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1809,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>50</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1835,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1861,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>50</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1889,11 +1765,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1913,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" t="s">
-        <v>72</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1941,11 +1813,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1965,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1993,11 +1861,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2017,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2045,11 +1909,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2069,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2097,11 +1957,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2121,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2149,11 +2005,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2173,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2201,11 +2053,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99783.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99783.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order. Without objection the Chair is authorized to declare recesses of the Committee at any time. I want to thank all of you for being here.    You know, given the subject of this hearing, it seems appropriate to me that we all remind ourselves that the very bedrock foundation principle that gave birth to America in the first place was the conviction that all human beings are children of God and that they are created equal in his sight.    Throughout America's history we have struggled to fulfill that conviction in our national life. It took a Civil War in this Nation to make the 7,000-year-old, State-sanctioned practice of human slavery to come to an end, and ultimately it did so across the world.    American women overcame the mindless policy that deprived them of the right to vote in America. Then this Nation charged into Europe and arrested the hellish Nazi holocaust. We crushed the Ku Klux Klan and prevailed in the dark days of our own civil rights struggle.    And so, in many ways we have made great progress in the area of civil rights in this country. But there is one glaring exception: We have overlooked unborn children and that life itself is the most foundational civil right of all. The result is that today in America between 40 and 50 percent of all African-American babies, virtually 1 in 2, are killed before they are born, which is a greater cause of death for African-Americans than heart disease, cancer, diabetes, AIDS, and violence combined.    An Hispanic child is three times more likely to be aborted than a White child. A Black child is five times more likely to be aborted than a White child. More than 14 million African-American babies have been aborted since Roe v. Wade. It translates to over one-fourth of the African-American population in America today. When you add that to the thousands of little girls who have been aborted in America simply because they are little girls instead of little boys, these are travesties that should assault the mind and conscience of every American.    In the course of the Committee's investigation into Planned Parenthood, we have discovered that it is training clinic staff to answer questions from patients about sex selection and race selection abortions. Planned Parenthood physicians are clearly being confronted with the issue of whether or not a child can knowingly be aborted when the underlying reason is discriminatory.    Currently only eight States prohibit abortions for the reason of sex selection at some point during the pregnancy. My home State of Arizona also prohibits sex selection and race-based abortions.    Now, the subject of the hearing today, the Prenatal Nondiscrimination Act, restricts sex selection abortion and race selection abortion, and the coercion of a women to obtain either. The bill holds abortionists who prey on women accountable for their actions while holding the women on whom the abortion is performed harmless under the law.    Now, there will be those who will say that this bill has a much larger agenda; and let me respond simply by saying that I sincerely and passionately hope that they are right. I truly hope that the debate and passage of this bill will call all Americans in and outside of Congress to an inward and heartfelt reflection upon the humanity of unborn children and the inhumanity of what is being done to them in 2016 in the land of the free and the home of the brave.    Across human history the greatest voices among us have always emphasized the critical responsibility of each of us to recognize and cherish the divine light of eternity shining in the soul of every last one of our fellow human beings.    In 1847, Frederick Douglass said, ``Right is of no sex, truth is of no color, God is the father of us all and all our brethren.'' In Matthew 25, Jesus said, ``Inasmuch as you have done and one of the least of these my brethren and you have done it under me.'' Thomas Jefferson said, ``The care of human life and its happiness and not its destruction is the chief and only object of good government.''    Ladies and gentlemen, I know that when the subject is related in any way to abortion, the doors of reason and human compassion in our minds and hearts often close, and the humanity of the unborn can oftentimes no longer be seen. But this is the civil rights struggle that will define our generation. And I hope this hearing today will begin to open our hearts and minds again.    And with that, I would now yield to the Ranking Member for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair. I know that you are sincere about your beliefs and I know that reasonable people can differ and we do, but I know that you are sincere and this is a heartfelt position for you. Nevertheless, I am disturbed that we have this hearing today. And I am disturbed because of the fact that first I do believe--and you mentioned in your opening statement that somebody would mention this, and yes, I am going to mention it--that this is really an assault on the woman's right to choose and not simply anything to do with sex and race.    And I am also concerned that this bill at one time was--no longer is, but one time had the name of Frederick Douglass in it and I think it besmirched the name of Frederick Douglass, who is one of the greatest Americans of all time. And that bothered me the last time we had this up and I opposed it.    And in your opening statement you were right that our Declaration of Independence, our Constitution, wonderful documents and said something in there about all men are created equal, they had inalienable rights, et cetera, but that was words on paper because we had slaves; and it did not end with the Civil War. It went on in the South at least until the 1960's and the Voting Rights Act, the Civil Rights Act, Brown v. Board of Education.    And it did not end there because in the South where I am from, which was the focus of the Voting Rights Act for good reason, people do not let--old times there are not forgotten and rarely given up. And segregation and racial injustice carried on into the 1970's and the 1980's and they carry on today. And we do not have Governors in the South now with interposition dripping off their lips standing in the schoolhouse door.    But what we have got is Governors and legislators, not just in the South and as the Supreme Court did get it correct to some extent in the Voting Rights Act when they said it is not just a problem in those select States in the South, it is a problem all over the country and that they should not be specifically limited in the South, well, I do not know that they should have just been limited.    The South is the worst at doing this and there may be problems in other parts in the country, indeed there are, with racial gerrymandering and impediments to people voting, but the South does it best. It is one of the South's deals: We have got barbeque, we have got good football, and we do the best job if you want to really thwart a person's opportunity to vote, the South does it.    And so there should have been special circumstances there. But unfortunately it is a national problem, but the South is kind of the leader there. So all attempts to stop people from voting, which our Judiciary Committee has not taken up voting rights, that is where we should be looking at. We can give people an opportunity to vote. And if we can do things to give people opportunities to have a good living, have women have equal pay and to get jobs and get proper education, and poor people get education and be able to afford and well take care of children, you would cut down the rate of abortion in the African-American community.    You are not going to do it with some bill like this. You are going to do it by giving African-American women better job opportunities and better pay and look out for them in every way possible so they can have a child and know they can afford it and that child will be brought into a house and a home with a mother that can take care of them.    Those are the issues we have got to be dealing with. And I know that these issues--the Chairman and the members of his party are aware of them, but they are not bringing bills to deal with them. We are saying if you have a job now you are losing your SNAP payments. But just because you have got a job does not mean you do not need assistance and that you and your family do not need some help.    So this bill, which is opposed by about every group that cares about women's choice and constitutional rights of a woman, is here like other bills we have had to really be an assault on Roe v. Wade. We have got an entire Committee set up to be an assault on Roe v. Wade. And yet we have got folks that need job training and monies for education. And we have got voting rights issues and we got healthcare issues. And we are not dealing with those things. We are not dealing with what causes the problem. And we really need--we are kind of picking these issues.    And I understand the Chairman. The Chairman is very, very strong on this issue and he has got a heartfelt belief that really--I may be wrong, if I am wrong I do not mean it in an adverse way upon you--but I do not think you want abortion to be legal under any circumstances. And I understand your position, but I think women have a right to choose. I think Roe v. Wade was right. And I do not think we should be spending time on these type of issues, attack Roe v. Wade and women's choice; and we should be dealing with voting rights and human rights and civil rights, and not under the guise of using those issues to frame a bill and a conversation that intends to overrule Roe v. Wade.    So I would like to introduce for the record a statement from the Black Women Reproductive Justice Organizations, they oppose this bill; and also one from the physicians, the American College of Obstetricians and Gynecologists. And without objection I would ask they be made part of the record.</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Franks. I am very delighted to be here with you and my good friend, Ranking Subcommittee Member Cohen and the highly-esteemed Judy Chu. To my friends here and our guests that are witnesses and our friends in the audience, this Prenatal Nondiscrimination Act is the latest attempt to erode the constitutional right to an abortion guaranteed by Roe v. Wade for over 40 years. Among other things, the bill would make it a crime for a doctor to perform an abortion if he or she knows that the procedure is being done because of the race or sex of the fetus or the race of one of the parents regardless of viability.    As I noted in an earlier Congress, the 112th, when we last considered this bill, it is flawed and patently unconstitutional because it bans certain pre-viable abortions. The Roe case already mentioned is clear that a woman has an absolutely constitutional right to have an abortion prior to fetal viability. And this legislation is another deliberate attempt by anti-choice activists to undermine and ultimately overturn Roe.    In addition, this measure has nothing to do with civil rights. For instance, the bill proponents offer no evidence that women are choosing race-selective abortions. Indeed, these proponents do not even bother to make the claim that African-American women, for example, choose to abort their fetuses because the fetus or one of the parents is African-American. They do not make this argument because it is absurd on its face. And yet that is exactly the type of conduct that the bill supposedly prohibits.    The bill's proponents try to sidestep this obvious flaw by arguing instead that the bill is needed because abortions are disproportionately common in communities of color. But to the extent abortions are performed disproportionately in minority communities, the disparity points to broader socio-economic inequalities that banning abortion will not solve.    The African-American and Hispanic communities are underserved when it comes to prenatal, maternal, and child healthcare services. This lack of access to reproductive healthcare results in African-American women being three to four times more likely to die from pregnancy-related causes than White women. And barriers to effective contraceptives and effective sex education, among other things, leads to the unintended pregnancy rate for African-American women being 67 percent versus 40 percent for White women. Minority communities lack access to adequate health care.    Yet rather than addressing these disparities, the bill only reinforces them through its criminal penalties, which will create a chilling effect on doctors serving these communities.    So finally I reject in the strongest possible terms the slander that Planned Parenthood and other abortion providers are inherently racist. Planned Parenthood is a leading provider of high quality health care for women serving 2.7 million Americans a year. It provides many critical health services, such as annual wellness claims, cancer screenings, contraception, and the study of sexually transmitted diseases.    My hero in all of this and many other issues, Dr. Martin Luther King, Jr., strongly supported the work of Margaret Sanger, Planned Parenthood's founder, and emphasized the importance of access to family planning resources for African-Americans.    On accepting the Margaret Sanger Award from Planned Parenthood in 1966, Dr. King stated, and I quote, and as I conclude, ``There is a striking kinship between our movement and Margaret Sanger's early efforts. She, like we, saw the horrifying conditions of ghetto life. Like we, she knew that all of society is poisoned by cancerous slums. Like we, she was a direct actionist, a non-violent resister. African-Americans have no mere academic nor ordinary interest in family planning. They have a special and urgent concern.''    My friends, I concur with Dr. King and reject the sponsor's preposterous and offensive argument that legalized abortion and its providers are racist.    And I thank you for this opportunity, Mr. Chairman, and I am concluded at this point.</t>
   </si>
   <si>
@@ -85,6 +103,9 @@
     <t xml:space="preserve">    Mr. Franks. This meeting will come to order. Thank you all for waiting so patiently. And we will now introduce our witnesses.    And our first witness is Catherine Davis. Ms. Davis is a founding member of the National Black Pro-Life Coalition, and founder and president of the Restoration Project. She often partners with the National Black Pro-Life Coalition, the Network of Politically Active Christians, and the Frederick Douglas Foundation, in an ongoing effort to educate Americans about the issues that are impacting the Black community.    Our second witness is Anna Higgins. Ms. Higgins is an attorney and associate scholar at the Charlotte Lozier Institute, a research and education institution dedicated to bringing together physicians, sociologists, statisticians, and policy researchers on a wide range of life issues. She has previously held the position of director of the Center for Human Dignity at the Family Research Council.    Our third witness is Miriam Yeung. Ms. Yeung is the executive director of the National Asian Pacific American Women's Forum, a multi-issue progressive organization dedicated to social justice and human rights for Asian, and Pacific Islander women and girls in the U.S.    The current priorities include winning rights for immigrant women, organizing nail salon workers for safer working conditions, conducting community based participatory research with young API women, and ending human trafficking.    Our fourth and final witness is Reverend Derek McCoy. Reverend McCoy is the National Clergy Relations Director for the Center of Urban Renewal and Education, a non-profit think tank dedicated to addressing the issues of race and poverty through the principals of faith, freedom, and personal responsibility. He previously served as the president of the Maryland Family Alliance, and Maryland Family Council. I just want to welcome all of you. Thank you for being here.    Now, each of the witnesses written statements will be entered into the record in its entirety. And I would ask that each of you summarize your testimony in 5 minutes or less. To help you stay within that time there is a timing light in front of you. The light will switch from green to yellow, indicating that you have 1 minute to conclude your testimony. When the light turns red it indicates that the witness' 5 minutes have expired.    And before I recognize the witness, it is the tradition of the Subcommittee that they be sworn. So, if you please stand to be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole truth, and nothing but the truth, so help you god? Please be seated.    Let the record reflect that the witnesses answered in the affirmative. And I would now recognize our first witness, Ms. Davis. And, Ms. Davis, if you pull that microphone to you and turn it on before beginning.</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Davis. Thank you, Congressman.</t>
   </si>
   <si>
@@ -97,18 +118,27 @@
     <t xml:space="preserve">    Mr. Franks. Thank you Ms. Davis. I now recognize our second witness, Ms. Higgins. And, Ms. Higgins, if you will pull that microphone toward you and make sure that it is on.</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Higgins. All right. Here we go. Mr. Chairman Franks, Ranking Member Cohen, and distinguished Members of the Subcommittee, I am grateful to have asked by the Subcommittee to testify today in support of the Prenatal Nondiscrimination Act of 2016, or H.R. 4924.    Passing this bill is a necessary and proactive step in the fight to end gender inequality domestically and abroad. Many people in the United States assume that sex discrimination has been all but eliminated here. Yet, a violent form of sex discrimination in the form of sex selective abortion, practiced on girls in particular, is still permitted within our boarders.    Sex selective abortion is choosing to abort a preborn child based solely on that child's sex. Any discrimination against a unique human individual based on sex alone constitutes sex discrimination, and it cannot stand. Congress has the opportunity here, through the passage of the Prenatal Nondiscrimination Act to prohibit the discriminatory practice of sex selective abortion, thereby confirming the fact that women have the same inherent civil and human rights as men.    I intend to testify to the existence of sex discrimination through sex selective abortion, the seriousness of it, and the justifications in enacting this bill. My comments are condensed from my extensive research paper just published by Charlotte Lozier Institute this week. The findings on sex selective abortion in this bill are quite extensive, and I think they highlight the prevalence of the problem here in the United States, and the problem globally of sex discrimination against girls via abortion.    Ban on sex selective abortion to protect girls, in particular from the practice of gendercide. We know that studies show that at conception and at birth the ratio of males to females, naturally, biologically, is about equal.    Additionally, there is little to no variation in sex ratios in relation to maternal race or age. So, any kind of skewed sex ratio at birth cannot be explained away by natural variations. There are well documented practices of infanticide and sex selective abortion of female children, and that has resulted in upwards of 160 million missing girls across the globe.    So, what we are saying here is it is affecting the human society in general. Sex selection in favor of males is known to be a problem in certain cultures based on the idea of son preference, but the practice of son preference is not limited to certain cultures or countries. In fact, European countries have numbers similar to that skewed numbers of China and India, particularly the Caucasus.    Opponents of these bans will claim that this precaution is not needed, because the ratio is balanced in the United States overall. That balanced ratio belies the fact that Western nations such as the U.K. and the U.S. have seen a spike in sex ratio imbalance within certain subpopulations inside our own borders. Studies have shown that. And another two studies out of Canada came out this week confirming those very numbers in extreme sex imbalance ratios.    Additionally, we have a lot of commercial advertisements. I saw three websites this week that advertise in the United States finding out the gender of your child as early as 10 weeks gestation for the purpose of family balancing. There's no way to family balance past pregnancy without sex selective abortion.    The abysmal state of abortion reporting data does not allow us, in the United States, to have exact numbers. But the question before us is not, ``What are the exact numbers?'' The question before us is whether any abortion done for reasons of sex selection is permissible in light of our tradition, and laws protecting persons from discrimination based on sex alone.    The American public overwhelmingly supports bans on sex selective abortion, because they understand this violates American tradition of holding up the idea that women and men are equal under the law, and should be thusly protected. Sex discrimination through sex selective abortion is a violent form of sex discrimination, and needs to be eliminated, not just globally, but also here in the United States.    We have seen Congress say that this is not permissible practice overseas. We have seen Secretary of State Clinton, the United Nations, all come out against sex selective abortion. But, if we do not address this here, we have no right to address it elsewhere. So, we must accept that this occurs globally. And Congress can take their first step in eliminating the reprehensive practice of discriminating against women by banning sex selective abortion here in the United States, and thereby retain its moral authority to say, ``This should not happen anywhere.'' Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Thank you, Ms. Higgins. And we now recognize Ms. Yeung.</t>
   </si>
   <si>
+    <t>Yeung</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Yeung. Thank you for allowing me to testify before you today. I lead the National Asian Pacific American Women's Forum, the country's only multi-issue organization dedicated to building a movement for social justice and human rights for Asian American and Pacific Islander women and girls in the United States. On behalf of NAPAWF and the dozens of women's rights reproductive justice and civil rights groups that stand with me, I strongly urge the Members of this Congress to oppose the Prenatal Nondiscrimination Act of 2016.    This bill represents a duplicitous attempt to address racial and gender discrimination, while actually intending to chip away at abortion rights. Not only does this legislation call into question a woman's motives for seeking abortion care, it is especially punishing in the precedent it would set, forcing doctors to scrutinize a woman because of her race or ethnicity. The decision to seek abortion care should be up to a woman with her doctor and her family, not politicians. The majority of Americans support this value, and believe that a woman knows what is best for her and her family.    In a 2015 poll by Hart Research Associates, 65 percent Americans say that Congress should not be spending time debating and passing a sex selective abortion ban. I encourage Members of the Subcommittee to support racial equality in a real way, by addressing healthcare disparities in communities of color, and protecting the sanctity of the doctor/patient relationship by supporting open, honest communication with one's medical provider.    This bill forces doctors to act as police interrogators in the exam room, ultimately making women more reluctant to share their personal experiences for fear of their private information being made public. When medically accurate, safe, and nonjudgmental patient counseling is taken away, women, especially those most vulnerable to domestic violence or trafficking, lose the chance to get the help she needs.    This bill perpetuates the offensive stereotype that Black women are unable to make reproductive health decisions for their own families. It accuses Black women of being irresponsible and worse, intentionally deselecting babies who share their own race. Black women choose abortion care more often than other communities do because of a well-documented, disproportionate lack of access to contraception. This legislation does nothing to address the root causes of unintended pregnancies or historically rooted inequalities within these communities.    In February of 2016, Black women leaders came together in solidarity to affirm Black women's autonomy, and reject legislation like PRENDA that relies on racist claims about Black mothers. In their own words, Monica Raye Simpson, director of the Trust Black Women Partnership said, ``Bans on abortion based on race rely on anti-Black and anti-immigrant stereotypes about women of color, and constitutes a direct assault on Black motherhood.    We must remember that this legislation has its origins in the billboards put up here in Atlanta and around the country attacking Black mothers and stigmatizing our decisions about pregnancy, billboards we fought and successfully saw removed.'' Alicia Garza, cofounder of Black Lives Matter said, ``We absolutely have to make sure that reproductive justice, and reproductive freedom is part of the narrative of what it takes to make Black lives matter.''    Women of color already face difficulties accessing health care and have poorer health outcomes. Black women are more likely to die from preventable pregnancy related causes than White women, and their unintended pregnancy rate is higher than any other ethnic or racial group. Vietnamese women are five times more likely to die from cervical cancer than White women. High levels of poverty already prevent Asian American women and other women of color from accessing health care every day. Unfortunately, PRENDA would make healthcare outcomes for women of color even worse.    This legislation also perpetuates the offensive stereotype that Asian American families do not value the lives of their girl children, while also not addressing the issue of sex selection by ignoring substantive policy to alleviate the root causes of son preference or gender inequity. While sex selection is an issue abroad, the U.S. is not China or India. In the U.S. researchers have found that there is not a widespread issue and, in fact, Asian Americans are actually having more girls on average than White Americans are.    Gender inequity cannot be solved by banning abortion. An interagency U.N. statement addressing sex selection and gender discrimination clearly explains that countries, ``Have an obligation to ensure that these injustices,'' meaning son preference, ``are addressed without exposing women to the risk of death or serious injury by denying them access to needed services, such as safe abortion.'' Aruna Papp, the Canadian advocate, cited in the findings, concurs with this opinion, and has submitted written testimony opposed to PRENDA for the harm it will do to women.    Asian American and Pacific Islander women know that gender inequities do exist and are working in culturally competent ways to provide long-term, sustainable solutions. NAPAWF and others are working with members of our own community to empower women and girls, thereby challenging norms and transforming values. We cannot help women by taking away women's rights. We cannot eliminate racism by relying on racist assumptions.    I welcome all Members of Congress to pass legislation that truly results in racial justice and gender equality. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Thank you Ms. Yeung. And I would now--Reverend McCoy please.</t>
   </si>
   <si>
+    <t>McCoy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Rev. McCoy. Thank you.</t>
   </si>
   <si>
@@ -139,9 +169,18 @@
     <t>412385</t>
   </si>
   <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman. Before I begin I would like to yield 45 seconds to the gentlelady from California, Ms. Chu.</t>
   </si>
   <si>
+    <t>Chu</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Chu. Thank you Congressman Deutch for yielding. I want to thank Miriam Yeung for testifying today, and her leadership on issues affecting the Asian American and Pacific Islander or AAPI community.    As chair of the Congressional Asian Pacific Caucus, and as an Asian American woman, I am extremely disappointed and deeply disturbed to see that PRENDA is once again before this Subcommittee. And I will continue to voice my strong opposition to the racist and sexist nature of this bill. I request that my full written statement be entered into the record.</t>
   </si>
   <si>
@@ -203,6 +242,12 @@
   </si>
   <si>
     <t>412226</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Jim</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jordan. Mr. Chairman, I would yield my time to the Chair.</t>
@@ -587,7 +632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +640,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,1445 +662,1692 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99783.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99783.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Franks</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412236</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Cohen</t>
   </si>
   <si>
@@ -167,6 +176,9 @@
   </si>
   <si>
     <t>412385</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Deutch</t>
@@ -632,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,7 +652,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,1689 +677,1816 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
